--- a/biology/Botanique/Hydrangea_paniculata/Hydrangea_paniculata.xlsx
+++ b/biology/Botanique/Hydrangea_paniculata/Hydrangea_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrangea paniculata est une espèce du genre Hydrangea originaire d'Asie tempérée orientale : Chine, Corée, Japon, Sakhaline.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il s'agit d'un arbuste caduc, de moins de 2 m de haut.
 Les feuilles sont vert moyen, larges, ovales.
@@ -546,9 +560,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, son écorce était utilisée pour la fabrication de certains papiers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, son écorce était utilisée pour la fabrication de certains papiers.
 Il s'agit maintenant d'une espèce utilisée comme arbuste ornemental en situation ombragée qui se trouve aisément en France. Elle exige un substrat acide à neutre.
 De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont :
 Hydrangea paniculata 'Floribunda'
